--- a/models/table_b5-7.xlsx
+++ b/models/table_b5-7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="160">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -109,382 +109,391 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1721            </t>
+    <t xml:space="preserve">1728            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4460          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2363         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2681          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">341.69          </t>
+    <t xml:space="preserve">0.4388          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4162         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2581          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">333.07          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1604***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0104)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0433          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0952)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4091***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1284)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4193**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1731)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3062          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2827)        </t>
+    <t xml:space="preserve">0.1637***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0097)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0482          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0943)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3985***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1346)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4245**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1769)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3039          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2818)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4465          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2221         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2716          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">228.00          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1606***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0470          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0968)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4065***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1282)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4253**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1725)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3005          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2843)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0218         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0236)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0113         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0172)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6560          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5069          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6247          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">403.73          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1560***       </t>
+    <t xml:space="preserve">0.4394          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3956         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2617          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">222.32          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1640***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0519          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0955)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3958***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1343)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4316**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1763)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2982          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2832)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0255         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0270)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0097         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0165)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6564          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4214          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6237          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">406.04          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1578***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0047)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0417          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0487)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1635**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0718)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2066**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0935)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0487          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1401)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0321         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0222)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0144         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0123)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1956**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0777)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6012***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0460)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6819          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6856          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7075          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">404.68          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1553***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0051)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0462         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0532)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1231          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0788)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1278          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0820)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0484         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1222)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0195         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0203)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0109         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0155)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0725          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0744)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5116***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0382)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3149***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0680)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6726          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6477          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6871          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">387.88          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1543***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0049)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0198         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0496)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1731**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0791)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1604*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0890)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0159         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1358)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0238         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0213)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0172         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0161)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1247*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0730)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5495***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0374)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1915***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0402)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6778          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6811          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7006          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">397.20          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1544***       </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0050)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0426          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0493)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1682**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0711)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2048**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0910)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0544          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1448)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0326         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0214)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0162         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0128)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1886**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0810)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5961***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0475)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6817          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7969          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7089          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">402.85          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1530***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0464         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0542)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1288          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0786)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1267          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0794)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0427         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1257)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0194         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0189)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0126         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0163)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0636          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0756)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5072***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0383)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3142***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0677)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6716          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7375          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6872          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">384.63          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1524***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0049)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0178         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0505)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1776**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0784)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1595*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0866)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0087         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1395)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0241         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0207)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0189         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0166)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1180          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0761)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5479***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0384)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1865***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0408)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6771          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7808          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7014          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">394.38          </t>
+    <t xml:space="preserve">-0.0360         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0512)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1534*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0795)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1430*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0858)        </t>
   </si>
   <si>
     <t xml:space="preserve">-0.0348         </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0522)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1586**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0790)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1422*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0834)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0281         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1331)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0215         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0198)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0166         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0169)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0896          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0751)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5271***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0365)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2550***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0520)        </t>
+    <t xml:space="preserve">(0.1296)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0213         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0206)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0148         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0162)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0971          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0726)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5295***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0359)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2587***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0517)        </t>
   </si>
 </sst>
 </file>
@@ -980,10 +989,10 @@
         <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1003,10 +1012,10 @@
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1026,10 +1035,10 @@
         <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1049,10 +1058,10 @@
         <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1072,10 +1081,10 @@
         <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1118,10 +1127,10 @@
         <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1138,13 +1147,13 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1161,13 +1170,13 @@
         <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1184,13 +1193,13 @@
         <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1207,13 +1216,13 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1230,13 +1239,13 @@
         <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1253,13 +1262,13 @@
         <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1276,13 +1285,13 @@
         <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1299,13 +1308,13 @@
         <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1322,13 +1331,13 @@
         <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1345,13 +1354,13 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1368,13 +1377,13 @@
         <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1391,13 +1400,13 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1414,13 +1423,13 @@
         <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G25" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1437,13 +1446,13 @@
         <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1460,13 +1469,13 @@
         <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1483,13 +1492,13 @@
         <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1506,13 +1515,13 @@
         <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G29" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1529,7 +1538,7 @@
         <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
         <v>48</v>
@@ -1552,7 +1561,7 @@
         <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
         <v>48</v>
@@ -1578,7 +1587,7 @@
         <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G32" t="s">
         <v>48</v>
@@ -1601,7 +1610,7 @@
         <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G33" t="s">
         <v>48</v>
@@ -1627,7 +1636,7 @@
         <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1650,7 +1659,7 @@
         <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/models/table_b5-7.xlsx
+++ b/models/table_b5-7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="199">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -70,16 +70,19 @@
     <t xml:space="preserve">const                  </t>
   </si>
   <si>
-    <t xml:space="preserve">l_sy_suffrage          </t>
+    <t xml:space="preserve">l_sy_gdp               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_sy_xtr_urban         </t>
   </si>
   <si>
     <t xml:space="preserve">l_sy_lifeex            </t>
   </si>
   <si>
-    <t xml:space="preserve">l_sy_urban             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_sy_gdp               </t>
+    <t xml:space="preserve">l_sy_trnsprnt          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_sy_brcrcy            </t>
   </si>
   <si>
     <t xml:space="preserve">l_sy_war               </t>
@@ -94,6 +97,15 @@
     <t xml:space="preserve">l_sy_sci_state         </t>
   </si>
   <si>
+    <t xml:space="preserve">1860                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1860:nat               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1860:sci               </t>
+  </si>
+  <si>
     <t xml:space="preserve">l_wy_nat_world         </t>
   </si>
   <si>
@@ -109,391 +121,496 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1728            </t>
+    <t xml:space="preserve">1957            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4388          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4162         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2581          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">333.07          </t>
+    <t xml:space="preserve">0.5422          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0806          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4158          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">457.39          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1637***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0097)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0482          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0943)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3985***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1346)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4245**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1769)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3039          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2818)        </t>
+    <t xml:space="preserve">0.1642***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0092)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2563          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2404)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4793***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1539)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1639**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0820)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0042          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1031)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1069          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1354)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4394          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3956         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2617          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">222.32          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1640***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0519          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0955)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3958***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1343)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4316**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1763)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2982          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2832)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0255         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0270)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0097         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0165)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6564          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4214          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6237          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">406.04          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1578***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0047)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0417          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0487)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1635**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0718)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2066**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0935)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0487          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1401)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0321         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0222)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0144         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0123)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1956**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0777)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6012***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0460)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6819          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6856          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7075          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">404.68          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1553***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0051)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0462         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0532)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1231          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0788)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1278          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0820)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0484         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1222)        </t>
+    <t xml:space="preserve">0.5429          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0990          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4216          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">327.30          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1638***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0091)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2524          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2396)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4799***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1540)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1628**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0822)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0060          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1012)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1037          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1377)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0089          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0225)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0241         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0164)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7340          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7550          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7308          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">442.46          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1531***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0034)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0684          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1029)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1231**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0523)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0600          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0552)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0390         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0575)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0137          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0561)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0206         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0186)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0228*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0124)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2565***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0742)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5947***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0555)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1555          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1264)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0254         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0861)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5350***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1918)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7508          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8090          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7632          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">445.74          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1468***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0032)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0071          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0938)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0228          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0275)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0439          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0637)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0182         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0634)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0261         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0594)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0058         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0198         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0130)        </t>
   </si>
   <si>
     <t xml:space="preserve">-0.0195         </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0203)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0109         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0155)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0725          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0744)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5116***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0382)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3149***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0680)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6726          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6477          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6871          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">387.88          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1543***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0049)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0198         </t>
+    <t xml:space="preserve">(0.1230)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5231***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0471)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1435          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1238)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0276          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0842)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5448***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1845)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3746***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0750)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7466          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8016          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7570          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">435.87          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1558***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0039)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0033         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0965)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0146          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0168)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0132          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0585)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0214         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0608)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0120         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0615)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0170         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0178)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0157         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0142)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0580          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5151***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0551)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1729          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1215)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0065          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0817)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5496***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1847)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3730***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0964)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7501          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7938          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7585          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">444.03          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1511***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0033)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0044         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0937)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0088          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0208)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0255          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0620)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0180         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0625)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0221         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0614)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0106         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0170)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0173         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0138)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0031         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1161)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5119***       </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0496)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1731**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0791)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1604*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0890)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0159         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1358)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0238         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0213)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0172         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0161)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1247*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0730)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5495***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0374)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1915***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0402)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6778          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6811          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7006          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">397.20          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1544***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0050)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0360         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0512)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1534*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0795)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1430*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0858)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0348         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1296)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0213         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0206)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0148         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0162)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0971          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0726)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5295***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0359)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2587***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0517)        </t>
+    <t xml:space="preserve">0.1585          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1220)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0210          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0827)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5484***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1839)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4091***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0851)        </t>
   </si>
 </sst>
 </file>
@@ -851,7 +968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -885,22 +1002,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -908,22 +1025,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -931,22 +1048,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -954,22 +1071,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -977,22 +1094,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1000,22 +1117,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1023,22 +1140,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1046,22 +1163,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1069,22 +1186,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1092,22 +1209,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1115,22 +1232,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1138,22 +1255,22 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1161,22 +1278,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1184,22 +1301,22 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1207,22 +1324,22 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1230,22 +1347,22 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1253,22 +1370,22 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1276,22 +1393,22 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1299,22 +1416,22 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1322,22 +1439,22 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1345,22 +1462,22 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1368,22 +1485,22 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="G23" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1391,22 +1508,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="G24" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1414,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="G25" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1437,22 +1554,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="G26" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1460,22 +1577,22 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="G27" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1483,22 +1600,22 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F28" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="G28" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1506,22 +1623,22 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1529,22 +1646,22 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1552,22 +1669,22 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1575,22 +1692,22 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="F32" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1598,22 +1715,22 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1621,22 +1738,22 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="G34" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1644,22 +1761,206 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="G35" t="s">
-        <v>159</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
